--- a/manuscript/model_assessment.xlsx
+++ b/manuscript/model_assessment.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="20115" windowHeight="10545"/>
+    <workbookView xWindow="13560" yWindow="5240" windowWidth="20120" windowHeight="10540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sensitivity" sheetId="1" r:id="rId1"/>
     <sheet name="specificity" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Classes</t>
   </si>
@@ -61,16 +66,35 @@
   </si>
   <si>
     <t>knn</t>
+  </si>
+  <si>
+    <t>Class ratio(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,8 +117,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -105,7 +133,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,192 +437,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9667</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>0.125</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.76670000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.29170000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H16"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.56859999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9667</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.73329999999999995</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="F3">
-        <v>0.76670000000000005</v>
+        <v>0.72550000000000003</v>
       </c>
       <c r="G3">
-        <v>0.73329999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.125</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C4">
-        <v>0.125</v>
+        <v>0.94730000000000003</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.75439999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.85189999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="F5">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="G5">
-        <v>0.92589999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
+      <c r="B16">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -600,204 +922,12 @@
     <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.56859999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.58819999999999995</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.74509999999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="G3">
-        <v>0.66669999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.94740000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.94730000000000003</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.84209999999999996</v>
-      </c>
-      <c r="F4">
-        <v>0.84209999999999996</v>
-      </c>
-      <c r="G4">
-        <v>0.85970000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.94440000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -807,8 +937,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/manuscript/model_assessment.xlsx
+++ b/manuscript/model_assessment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="5240" windowWidth="20120" windowHeight="10540" activeTab="1"/>
+    <workbookView xWindow="13560" yWindow="5235" windowWidth="20115" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="sensitivity" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>Classes</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Class ratio(3)</t>
+  </si>
+  <si>
+    <t>Class ratio(4)</t>
   </si>
 </sst>
 </file>
@@ -108,12 +111,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,6 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -437,35 +462,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -473,27 +498,27 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1"/>
@@ -504,197 +529,418 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.9667</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.73329999999999995</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.76670000000000005</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.73329999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.125</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.125</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.41670000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.85189999999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.85189999999999999</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.92589999999999995</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.92589999999999995</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.92589999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B11" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.76670000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
+      <c r="C15" s="5">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B23">
+      <c r="B16" s="5">
         <v>0.29170000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
+      <c r="C16" s="5">
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B17" s="5">
         <v>0.88890000000000002</v>
       </c>
+      <c r="C17" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -705,33 +951,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -739,27 +985,27 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1"/>
@@ -770,159 +1016,418 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.56859999999999999</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.58819999999999995</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.74509999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.72550000000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.66669999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.94740000000000002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.94730000000000003</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>0.84209999999999996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.84209999999999996</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.85970000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.94440000000000002</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.96299999999999997</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.94440000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.9123</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
         <v>0.64710000000000001</v>
       </c>
-      <c r="E14">
+      <c r="C15" s="5">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>0.72250000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="5">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="5">
         <v>0.87719999999999998</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="5">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <v>0.75439999999999996</v>
       </c>
-      <c r="E15">
+      <c r="F16" s="5">
         <v>0.75439999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
+      <c r="G16" s="5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="5">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
+      <c r="C17" s="5">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.72550000000000003</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.8246</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -937,7 +1442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
